--- a/template/tstg.xlsx
+++ b/template/tstg.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoting/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoting/Desktop/code/python/election-s-prediction/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441B6860-138A-D044-886B-4CF45E95DE83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE3FE5C-BE26-0A45-807D-7795ED4811C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4180" yWindow="780" windowWidth="43600" windowHeight="19760" xr2:uid="{0881E1A8-F3CD-5E46-9B58-2D8F79A3123D}"/>
   </bookViews>
@@ -223,19 +223,19 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -556,97 +556,97 @@
   <dimension ref="A1:AD3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="29" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="4" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="29" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="26">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
     </row>
     <row r="2" spans="1:30">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="5" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
     </row>
     <row r="3" spans="1:30">
       <c r="A3" s="1" t="s">
@@ -697,46 +697,46 @@
       <c r="P3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="V3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="W3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X3" s="6" t="s">
+      <c r="X3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Y3" s="6" t="s">
+      <c r="Y3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Z3" s="6" t="s">
+      <c r="Z3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA3" s="6" t="s">
+      <c r="AA3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AB3" s="6" t="s">
+      <c r="AB3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AC3" s="6" t="s">
+      <c r="AC3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AD3" s="6" t="s">
+      <c r="AD3" s="3" t="s">
         <v>31</v>
       </c>
     </row>

--- a/template/tstg.xlsx
+++ b/template/tstg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoting/Desktop/code/python/election-s-prediction/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE3FE5C-BE26-0A45-807D-7795ED4811C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B1A342-8337-C64B-A256-8F9325D92B2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4180" yWindow="780" windowWidth="43600" windowHeight="19760" xr2:uid="{0881E1A8-F3CD-5E46-9B58-2D8F79A3123D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>性别</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>序号</t>
-  </si>
-  <si>
-    <t>照片</t>
   </si>
   <si>
     <t>身份证号码</t>
@@ -553,34 +550,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E2FCD3-2382-D348-B011-EC8A147381B8}">
-  <dimension ref="A1:AD3"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="29" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="3" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="28" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="26">
+    <row r="1" spans="1:29" ht="26">
       <c r="A1" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -610,9 +607,8 @@
       <c r="AA1" s="6"/>
       <c r="AB1" s="6"/>
       <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:29">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -636,33 +632,32 @@
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="W2" s="4"/>
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
       <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:29">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -694,7 +689,7 @@
       <c r="O3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="Q3" s="3" t="s">
@@ -704,10 +699,10 @@
         <v>20</v>
       </c>
       <c r="S3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="U3" s="3" t="s">
         <v>22</v>
@@ -735,16 +730,13 @@
       </c>
       <c r="AC3" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="W2:AD2"/>
-    <mergeCell ref="A2:V2"/>
-    <mergeCell ref="A1:AD1"/>
+    <mergeCell ref="V2:AC2"/>
+    <mergeCell ref="A2:U2"/>
+    <mergeCell ref="A1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template/tstg.xlsx
+++ b/template/tstg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoting/Desktop/code/python/election-s-prediction/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B1A342-8337-C64B-A256-8F9325D92B2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C597956A-3A0B-5840-A72F-DA3ECD5D97C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4180" yWindow="780" windowWidth="43600" windowHeight="19760" xr2:uid="{0881E1A8-F3CD-5E46-9B58-2D8F79A3123D}"/>
   </bookViews>
@@ -129,14 +129,14 @@
   </si>
   <si>
     <t>台商台干</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -152,13 +152,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
@@ -166,11 +159,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="20"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -217,22 +226,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -553,10 +562,10 @@
   <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="3" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="2" bestFit="1" customWidth="1"/>
@@ -576,62 +585,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="26">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
     </row>
     <row r="2" spans="1:29">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
       <c r="V2" s="4" t="s">
         <v>5</v>
       </c>
@@ -644,91 +653,91 @@
       <c r="AC2" s="4"/>
     </row>
     <row r="3" spans="1:29">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="U3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="V3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="W3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="X3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Y3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="Z3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AA3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AB3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AC3" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -738,7 +747,7 @@
     <mergeCell ref="A2:U2"/>
     <mergeCell ref="A1:AC1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/template/tstg.xlsx
+++ b/template/tstg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoting/Desktop/code/python/election-s-prediction/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\election-s-prediction\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C597956A-3A0B-5840-A72F-DA3ECD5D97C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DDAB04-208E-45DB-9521-3EE7131A2980}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="780" windowWidth="43600" windowHeight="19760" xr2:uid="{0881E1A8-F3CD-5E46-9B58-2D8F79A3123D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0881E1A8-F3CD-5E46-9B58-2D8F79A3123D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>性别</t>
   </si>
@@ -50,85 +42,117 @@
     <t>基础信息</t>
   </si>
   <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>身份证号码</t>
+  </si>
+  <si>
+    <t>台胞证号码</t>
+  </si>
+  <si>
+    <t>居住证号码</t>
+  </si>
+  <si>
+    <t>在台区域</t>
+  </si>
+  <si>
+    <t>户籍地</t>
+  </si>
+  <si>
+    <t>民族</t>
+  </si>
+  <si>
+    <t>宗教信仰</t>
+  </si>
+  <si>
+    <t>社团身份</t>
+  </si>
+  <si>
+    <t>常驻地址</t>
+  </si>
+  <si>
+    <t>大陆手机号码</t>
+  </si>
+  <si>
+    <t>所在单位</t>
+  </si>
+  <si>
+    <t>职级职称</t>
+  </si>
+  <si>
+    <t>主要经历</t>
+  </si>
+  <si>
+    <t>政治主张</t>
+  </si>
+  <si>
+    <t>参与社会活动</t>
+  </si>
+  <si>
+    <t>代表作品</t>
+  </si>
+  <si>
+    <t>获得荣誉</t>
+  </si>
+  <si>
+    <t>媒体报道</t>
+  </si>
+  <si>
+    <t>填报单位</t>
+  </si>
+  <si>
+    <t>填报日期</t>
+  </si>
+  <si>
+    <t>其他需要说明事项</t>
+  </si>
+  <si>
+    <t>台商台干</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属行业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>来绍时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>两岸观</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业资源人脉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>婚姻状况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>党派</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>备注信息</t>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>身份证号码</t>
-  </si>
-  <si>
-    <t>台胞证号码</t>
-  </si>
-  <si>
-    <t>居住证号码</t>
-  </si>
-  <si>
-    <t>在台区域</t>
-  </si>
-  <si>
-    <t>户籍地</t>
-  </si>
-  <si>
-    <t>民族</t>
-  </si>
-  <si>
-    <t>婚姻状况</t>
-  </si>
-  <si>
-    <t>党派</t>
-  </si>
-  <si>
-    <t>宗教信仰</t>
-  </si>
-  <si>
-    <t>社团身份</t>
-  </si>
-  <si>
-    <t>常驻地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>台湾手机号码</t>
-  </si>
-  <si>
-    <t>大陆手机号码</t>
-  </si>
-  <si>
-    <t>所在单位</t>
-  </si>
-  <si>
-    <t>职级职称</t>
-  </si>
-  <si>
-    <t>主要经历</t>
-  </si>
-  <si>
-    <t>政治主张</t>
-  </si>
-  <si>
-    <t>参与社会活动</t>
-  </si>
-  <si>
-    <t>代表作品</t>
-  </si>
-  <si>
-    <t>获得荣誉</t>
-  </si>
-  <si>
-    <t>媒体报道</t>
-  </si>
-  <si>
-    <t>填报单位</t>
-  </si>
-  <si>
-    <t>填报日期</t>
-  </si>
-  <si>
-    <t>其他需要说明事项</t>
-  </si>
-  <si>
-    <t>台商台干</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>倾向</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -136,7 +160,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -222,26 +246,32 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -559,193 +589,253 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E2FCD3-2382-D348-B011-EC8A147381B8}">
-  <dimension ref="A1:AC3"/>
+  <dimension ref="A1:AJ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="28" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="3" width="4.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="4.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="26" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="32" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20.54296875" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="10.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="26">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:36" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
+      <c r="O3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:29">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-    </row>
-    <row r="3" spans="1:29">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC3" s="6" t="s">
-        <v>30</v>
-      </c>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="V2:AC2"/>
-    <mergeCell ref="A2:U2"/>
-    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="A2:Z2"/>
+    <mergeCell ref="AA2:AJ2"/>
+    <mergeCell ref="A1:AJ1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template/tstg.xlsx
+++ b/template/tstg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\election-s-prediction\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkPlace\台胞项目\election-s-prediction\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DDAB04-208E-45DB-9521-3EE7131A2980}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE8633D-EA51-4760-BD6E-8F868F02466A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0881E1A8-F3CD-5E46-9B58-2D8F79A3123D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0881E1A8-F3CD-5E46-9B58-2D8F79A3123D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,9 +72,6 @@
     <t>常驻地址</t>
   </si>
   <si>
-    <t>大陆手机号码</t>
-  </si>
-  <si>
     <t>所在单位</t>
   </si>
   <si>
@@ -148,11 +145,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>台湾手机号码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>倾向</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台湾联系方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大陆联系方式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -265,10 +266,10 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -592,35 +593,35 @@
   <dimension ref="A1:AJ5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="4.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="26" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="32" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="20.54296875" style="1" customWidth="1"/>
-    <col min="35" max="16384" width="10.81640625" style="1"/>
+    <col min="1" max="3" width="4.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="4.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="26" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="32" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20.5" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -658,49 +659,49 @@
       <c r="AI1" s="8"/>
       <c r="AJ1" s="8"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -732,25 +733,25 @@
         <v>11</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>12</v>
@@ -765,52 +766,52 @@
         <v>37</v>
       </c>
       <c r="V3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="X3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="Y3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AH3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="AJ3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
@@ -839,5 +840,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>